--- a/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
+++ b/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showFooter</t>
   </si>
   <si>
     <t xml:space="preserve">string_token</t>
@@ -457,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -499,12 +502,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia mono semilight"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -581,7 +578,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -686,7 +683,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -732,7 +729,7 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -862,7 +859,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -1122,7 +1119,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -1196,13 +1193,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -1251,7 +1248,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210204001</v>
+        <v>20210221001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,6 +1321,14 @@
       </c>
       <c r="H9" s="0" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1344,27 +1349,27 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,13 +1377,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,13 +1391,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,13 +1405,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,13 +1419,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,13 +1433,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,13 +1447,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,13 +1461,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,13 +1475,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,13 +1489,13 @@
         <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,13 +1503,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,13 +1517,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,13 +1531,13 @@
         <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,13 +1545,13 @@
         <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,13 +1573,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,13 +1587,13 @@
         <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,10 +1604,10 @@
         <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,10 +1618,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,13 +1629,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,13 +1643,13 @@
         <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,13 +1657,13 @@
         <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,13 +1671,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
+++ b/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">display.constraint_message</t>
   </si>
   <si>
-    <t xml:space="preserve">begin screen</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_one</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">q37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
   </si>
   <si>
     <t xml:space="preserve">choice_list_name</t>
@@ -683,7 +677,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -723,13 +717,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -766,75 +760,65 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +843,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -868,233 +852,233 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1103,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -1128,7 +1112,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -1139,42 +1123,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1196,10 +1180,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -1211,121 +1195,121 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210221001</v>
+        <v>20210304001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1353,331 +1337,331 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
